--- a/pysiaf/pre_delivery_data/FGS/FGS_SIAF.xlsx
+++ b/pysiaf/pre_delivery_data/FGS/FGS_SIAF.xlsx
@@ -20319,12 +20319,12 @@
       </c>
       <c r="P35" s="3" t="inlineStr">
         <is>
-          <t>196.3</t>
+          <t>205.895</t>
         </is>
       </c>
       <c r="Q35" s="3" t="inlineStr">
         <is>
-          <t>181.806</t>
+          <t>176.798</t>
         </is>
       </c>
       <c r="R35" s="3" t="inlineStr">
